--- a/biology/Zoologie/Galeodes_araneoides/Galeodes_araneoides.xlsx
+++ b/biology/Zoologie/Galeodes_araneoides/Galeodes_araneoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeodes araneoides est une espèce de solifuges de la famille des Galeodidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Russie, en Ukraine, en Turquie, en Syrie, en Israël, en Égypte, en Irak, en Arménie, en Azerbaïdjan, en Iran, au Turkménistan, en Afghanistan et au Kazakhstan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Russie, en Ukraine, en Turquie, en Syrie, en Israël, en Égypte, en Irak, en Arménie, en Azerbaïdjan, en Iran, au Turkménistan, en Afghanistan et au Kazakhstan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles décrits par Roewer en 1934 mesurent de 31 à  34 mm et la femelle 31 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles décrits par Roewer en 1934 mesurent de 31 à  34 mm et la femelle 31 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pallas, 1772 : Spicilegia zoologica quibus novae imprimis et obscurae animalium species iconibus, descriptionibus atque commentariis illustrantur. Fasciculus nonus, p. 1-86.</t>
         </is>
